--- a/Mini Project Product Backlog (2).xlsx
+++ b/Mini Project Product Backlog (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaanB\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ItsVa\Desktop\MiniProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB9B7BE-DB62-41C6-AEA7-C2103527B87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D2FB00-91FA-4B13-8200-B018C4883A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-360" yWindow="180" windowWidth="27030" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>If a player has taken damage in a fight he has to have the chance to use sertain health items he can find when completing quest or kill enemies</t>
+  </si>
+  <si>
+    <t>If the player has obtained several items he has to have an interface while viewing his items</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -818,7 +821,9 @@
       <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3168,21 +3173,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065DA0B4C524F55429CE2FD5B93B01F74" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0b81802aa35bff97fe2d4068698eefb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea016a50-4395-487d-ae85-89d5607ff42b" xmlns:ns3="1f7ab50f-86ca-4990-8cf2-d29dc34c52f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b03203aba3005218e1fa3e02034dd03" ns2:_="" ns3:_="">
     <xsd:import namespace="ea016a50-4395-487d-ae85-89d5607ff42b"/>
@@ -3347,24 +3337,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52455CA5-ED3E-453B-9081-F967EEE159E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3381,4 +3369,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mini Project Product Backlog (2).xlsx
+++ b/Mini Project Product Backlog (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ItsVa\Desktop\MiniProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D2FB00-91FA-4B13-8200-B018C4883A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3875F1BB-1FD7-436E-AB4A-3D3A22B56B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="180" windowWidth="27030" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="27030" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>If the player has obtained several items he has to have an interface while viewing his items</t>
+  </si>
+  <si>
+    <t>If the player has won a fight he has the opportinity to gain certain items that can be useful later in the game.</t>
+  </si>
+  <si>
+    <t>If the player wins a fight he has to obtain a random object to encourage the player to kill more for a diverse item pool.</t>
+  </si>
+  <si>
+    <t>The player should be rewarded for completing quests to encourage the player to continue playing</t>
+  </si>
+  <si>
+    <t>Locations should have descriptions to clarify possible misunderstandings and to encourage world building</t>
   </si>
 </sst>
 </file>
@@ -670,10 +682,10 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -836,6 +848,9 @@
       <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -848,7 +863,9 @@
       <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -861,7 +878,9 @@
       <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -874,7 +893,9 @@
       <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -934,6 +955,9 @@
       </c>
       <c r="B19" s="7" t="s">
         <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2064,7 +2088,7 @@
   <dimension ref="A1:F997"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2108,11 +2132,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
       <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -3173,6 +3201,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065DA0B4C524F55429CE2FD5B93B01F74" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0b81802aa35bff97fe2d4068698eefb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea016a50-4395-487d-ae85-89d5607ff42b" xmlns:ns3="1f7ab50f-86ca-4990-8cf2-d29dc34c52f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b03203aba3005218e1fa3e02034dd03" ns2:_="" ns3:_="">
     <xsd:import namespace="ea016a50-4395-487d-ae85-89d5607ff42b"/>
@@ -3337,22 +3380,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52455CA5-ED3E-453B-9081-F967EEE159E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3369,21 +3414,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E847B739-67F9-4ADE-9E6F-0F08F6F51A70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C084766E-1400-4040-81BA-5DFB82754CBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>